--- a/Table/client/lua/exe/temp/X 修炼秘籍任务库.xlsx
+++ b/Table/client/lua/exe/temp/X 修炼秘籍任务库.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ol_android_v12\ol_android_v12\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DD014-BEF9-4161-8045-EB7B18835902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,16 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,12 +203,6 @@
     <t>110,1</t>
   </si>
   <si>
-    <t>上架1次道具至拍卖行</t>
-  </si>
-  <si>
-    <t>在境界系统中进行1次闭关</t>
-  </si>
-  <si>
     <t>111,1</t>
   </si>
   <si>
@@ -238,33 +228,160 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>完成3次决斗场</t>
-  </si>
-  <si>
-    <t>完成1次装备副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成1次道庭护送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成1次失落谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成1次幽魂林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>击败1次个人BOSS</t>
+    <t>完成3次決鬥場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成1次裝備副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成1次道庭護送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成1次失落穀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗1次個人BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架1次道具至拍賣行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在境界系統中進行1次閉關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1회 청죽원 콘텐츠 완료</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3회 결투장 완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1회 장비 던전 완료</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1회 도정 호송 완료</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1회 실락 협곡 완료</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1회 유혼 숲 완료</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1회 개인 보스 처치</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1회 경매장에 아이템 등록</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>경지 시스템에서 1회 폐관</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +433,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -393,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -427,10 +551,13 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{E27DA5C9-02F5-4912-9F66-10E19D720376}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,218 +834,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="12" customWidth="1"/>
-    <col min="3" max="6" width="11.875" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="2" max="3" width="39.875" style="12" customWidth="1"/>
+    <col min="4" max="7" width="11.875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>53</v>
+      <c r="B2" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="10">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10">
         <v>40102</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>54</v>
+      <c r="B3" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="10">
+        <v>52</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10">
         <v>40104</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="10">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
+      <c r="B4" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="10">
+        <v>53</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="10">
         <v>40105</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10">
         <v>103</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E5" s="10">
         <v>40106</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>57</v>
+      <c r="B6" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="10">
         <v>40111</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
+      <c r="B7" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10">
         <v>40112</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>59</v>
+      <c r="B8" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="10">
         <v>40115</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>44</v>
+      <c r="B9" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="10">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10">
         <v>40129</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>45</v>
+      <c r="B10" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="10">
         <v>40131</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>5</v>
       </c>
     </row>
@@ -930,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB6A200-1EC9-4A6D-BE0F-59FCC26AC8A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2094,19 +2249,19 @@
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -2116,13 +2271,13 @@
         <v>401</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>40101</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2"/>
@@ -2135,7 +2290,7 @@
         <v>40102</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
@@ -2148,7 +2303,7 @@
         <v>40103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="2"/>
@@ -2161,7 +2316,7 @@
         <v>40104</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2"/>
@@ -2174,7 +2329,7 @@
         <v>40105</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
@@ -2187,7 +2342,7 @@
         <v>40106</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="2"/>
@@ -2200,7 +2355,7 @@
         <v>40107</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
@@ -2213,7 +2368,7 @@
         <v>40108</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
@@ -2226,7 +2381,7 @@
         <v>40109</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="2"/>
@@ -2239,7 +2394,7 @@
         <v>40110</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="2"/>
@@ -2252,7 +2407,7 @@
         <v>40111</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="2"/>
@@ -2265,7 +2420,7 @@
         <v>40112</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
@@ -2278,7 +2433,7 @@
         <v>40113</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2291,7 +2446,7 @@
         <v>40114</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
@@ -2304,7 +2459,7 @@
         <v>40115</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="2"/>
@@ -2317,7 +2472,7 @@
         <v>40116</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
@@ -2330,7 +2485,7 @@
         <v>40117</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
@@ -2343,7 +2498,7 @@
         <v>40118</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="2"/>
@@ -2356,7 +2511,7 @@
         <v>40119</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="2"/>
@@ -2369,7 +2524,7 @@
         <v>40120</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
@@ -2382,7 +2537,7 @@
         <v>40121</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
@@ -2395,7 +2550,7 @@
         <v>40122</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="2"/>
@@ -2408,7 +2563,7 @@
         <v>40123</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
@@ -2421,7 +2576,7 @@
         <v>40124</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="2"/>
@@ -2434,7 +2589,7 @@
         <v>40125</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="2"/>
@@ -2447,7 +2602,7 @@
         <v>40126</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
@@ -2460,7 +2615,7 @@
         <v>40127</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
@@ -2473,7 +2628,7 @@
         <v>40128</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -2486,7 +2641,7 @@
         <v>40129</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -2499,7 +2654,7 @@
         <v>40130</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -2511,7 +2666,7 @@
         <v>40131</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="9"/>
     </row>

--- a/Table/client/lua/exe/temp/X 修炼秘籍任务库.xlsx
+++ b/Table/client/lua/exe/temp/X 修炼秘籍任务库.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ol_android_v12\ol_android_v12\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DD014-BEF9-4161-8045-EB7B18835902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,12 +31,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>条件ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +207,12 @@
     <t>110,1</t>
   </si>
   <si>
+    <t>上架1次道具至拍卖行</t>
+  </si>
+  <si>
+    <t>在境界系统中进行1次闭关</t>
+  </si>
+  <si>
     <t>111,1</t>
   </si>
   <si>
@@ -228,160 +238,33 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>完成3次决斗场</t>
+  </si>
+  <si>
+    <t>完成1次装备副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成1次道庭护送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成1次失落谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成1次幽魂林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成3次決鬥場</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成1次裝備副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成1次道庭護送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成1次失落穀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗1次個人BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架1次道具至拍賣行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在境界系統中進行1次閉關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1회 청죽원 콘텐츠 완료</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3회 결투장 완료</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1회 장비 던전 완료</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1회 도정 호송 완료</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1회 실락 협곡 완료</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1회 유혼 숲 완료</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1회 개인 보스 처치</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1회 경매장에 아이템 등록</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>경지 시스템에서 1회 폐관</t>
-    </r>
+    <t>击败1次个人BOSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,13 +316,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -517,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -551,13 +427,10 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{E27DA5C9-02F5-4912-9F66-10E19D720376}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,246 +707,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.875" style="12" customWidth="1"/>
-    <col min="2" max="3" width="39.875" style="12" customWidth="1"/>
-    <col min="4" max="7" width="11.875" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="11"/>
+    <col min="2" max="2" width="39.875" style="12" customWidth="1"/>
+    <col min="3" max="6" width="11.875" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>60</v>
+      <c r="B2" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D2" s="10">
+        <v>40102</v>
       </c>
       <c r="E2" s="10">
-        <v>40102</v>
+        <v>1</v>
       </c>
       <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>61</v>
+      <c r="B3" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D3" s="10">
+        <v>40104</v>
       </c>
       <c r="E3" s="10">
-        <v>40104</v>
+        <v>3</v>
       </c>
       <c r="F3" s="10">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>62</v>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="D4" s="10">
+        <v>40105</v>
       </c>
       <c r="E4" s="10">
-        <v>40105</v>
+        <v>1</v>
       </c>
       <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>54</v>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="10">
+        <v>103</v>
       </c>
       <c r="D5" s="10">
-        <v>103</v>
+        <v>40106</v>
       </c>
       <c r="E5" s="10">
-        <v>40106</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>64</v>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="10">
+        <v>40111</v>
       </c>
       <c r="E6" s="10">
-        <v>40111</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>65</v>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="10">
+        <v>40112</v>
       </c>
       <c r="E7" s="10">
-        <v>40112</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>66</v>
+      <c r="B8" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="10">
+        <v>40115</v>
       </c>
       <c r="E8" s="10">
-        <v>40115</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>67</v>
+      <c r="B9" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="10">
+        <v>40129</v>
       </c>
       <c r="E9" s="10">
-        <v>40129</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>68</v>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="D10" s="10">
+        <v>40131</v>
       </c>
       <c r="E10" s="10">
-        <v>40131</v>
+        <v>1</v>
       </c>
       <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1085,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB6A200-1EC9-4A6D-BE0F-59FCC26AC8A2}">
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2249,19 +2094,19 @@
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -2271,13 +2116,13 @@
         <v>401</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5">
         <v>40101</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2"/>
@@ -2290,7 +2135,7 @@
         <v>40102</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
@@ -2303,7 +2148,7 @@
         <v>40103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="2"/>
@@ -2316,7 +2161,7 @@
         <v>40104</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2"/>
@@ -2329,7 +2174,7 @@
         <v>40105</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
@@ -2342,7 +2187,7 @@
         <v>40106</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="2"/>
@@ -2355,7 +2200,7 @@
         <v>40107</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
@@ -2368,7 +2213,7 @@
         <v>40108</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
@@ -2381,7 +2226,7 @@
         <v>40109</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="2"/>
@@ -2394,7 +2239,7 @@
         <v>40110</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="2"/>
@@ -2407,7 +2252,7 @@
         <v>40111</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="2"/>
@@ -2420,7 +2265,7 @@
         <v>40112</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
@@ -2433,7 +2278,7 @@
         <v>40113</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2446,7 +2291,7 @@
         <v>40114</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
@@ -2459,7 +2304,7 @@
         <v>40115</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="2"/>
@@ -2472,7 +2317,7 @@
         <v>40116</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
@@ -2485,7 +2330,7 @@
         <v>40117</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
@@ -2498,7 +2343,7 @@
         <v>40118</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="2"/>
@@ -2511,7 +2356,7 @@
         <v>40119</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="2"/>
@@ -2524,7 +2369,7 @@
         <v>40120</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
@@ -2537,7 +2382,7 @@
         <v>40121</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
@@ -2550,7 +2395,7 @@
         <v>40122</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="2"/>
@@ -2563,7 +2408,7 @@
         <v>40123</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
@@ -2576,7 +2421,7 @@
         <v>40124</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="2"/>
@@ -2589,7 +2434,7 @@
         <v>40125</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="2"/>
@@ -2602,7 +2447,7 @@
         <v>40126</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
@@ -2615,7 +2460,7 @@
         <v>40127</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
@@ -2628,7 +2473,7 @@
         <v>40128</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -2641,7 +2486,7 @@
         <v>40129</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -2654,7 +2499,7 @@
         <v>40130</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -2666,7 +2511,7 @@
         <v>40131</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" s="9"/>
     </row>
